--- a/Credentilas.xlsx
+++ b/Credentilas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesimyc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070E4292-D7D5-584A-A4CE-20E7DA61768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D0B7C6-203C-8E44-898B-62E4D4493CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="10140" windowHeight="16120" xr2:uid="{546EAD29-6116-9746-AFA7-6D8CB536F79E}"/>
+    <workbookView xWindow="15060" yWindow="960" windowWidth="13360" windowHeight="15520" activeTab="1" xr2:uid="{3B9D7392-E9A5-AB4A-B867-563380AC36E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QA1" sheetId="1" r:id="rId1"/>
+    <sheet name="QA2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,11 +34,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>posmanager50@info.com</t>
+  </si>
+  <si>
+    <t>posmanager51@info.com</t>
+  </si>
+  <si>
+    <t>posmanager52@info.com</t>
+  </si>
+  <si>
+    <t>posmanager53@info.com</t>
+  </si>
+  <si>
+    <t>posmanager54@info.com</t>
+  </si>
   <si>
     <t>posmanager</t>
   </si>
   <si>
+    <t>eventscrmmanager40@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager41@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager42@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager43@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager44@info.com</t>
+  </si>
+  <si>
     <t>imm20@info.com</t>
   </si>
   <si>
@@ -53,22 +90,103 @@
     <t>imm24@info.com</t>
   </si>
   <si>
+    <t>posmanager60@info.com</t>
+  </si>
+  <si>
+    <t>posmanager61@info.com</t>
+  </si>
+  <si>
+    <t>posmanager62@info.com</t>
+  </si>
+  <si>
+    <t>posmanager63@info.com</t>
+  </si>
+  <si>
+    <t>posmanager64@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager</t>
+  </si>
+  <si>
     <t>inventorymanager</t>
   </si>
   <si>
-    <t>posmanager50@info.com</t>
-  </si>
-  <si>
-    <t>posmanager51@info.com</t>
-  </si>
-  <si>
-    <t>posmanager52@info.com</t>
-  </si>
-  <si>
-    <t>posmanager53@info.com</t>
-  </si>
-  <si>
-    <t>posmanager54@info.com</t>
+    <t>salesmanager30@info.com</t>
+  </si>
+  <si>
+    <t>salesmanager31@info.com</t>
+  </si>
+  <si>
+    <t>salesmanager32@info.com</t>
+  </si>
+  <si>
+    <t>salesmanager33@info.com</t>
+  </si>
+  <si>
+    <t>salesmanager34@info.com</t>
+  </si>
+  <si>
+    <t>salesmanager</t>
+  </si>
+  <si>
+    <t>posmanager75@info.com</t>
+  </si>
+  <si>
+    <t>posmanager76@info.com</t>
+  </si>
+  <si>
+    <t>posmanager77@info.com</t>
+  </si>
+  <si>
+    <t>posmanager78@info.com</t>
+  </si>
+  <si>
+    <t>posmanager79@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager55@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager56@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager57@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager58@info.com</t>
+  </si>
+  <si>
+    <t>eventscrmmanager59@info.com</t>
+  </si>
+  <si>
+    <t>imm40@info.com</t>
+  </si>
+  <si>
+    <t>imm41@info.com</t>
+  </si>
+  <si>
+    <t>imm42@info.com</t>
+  </si>
+  <si>
+    <t>imm43@info.com</t>
+  </si>
+  <si>
+    <t>imm44@info.com</t>
+  </si>
+  <si>
+    <t>posmanager85@info.com</t>
+  </si>
+  <si>
+    <t>posmanager6@info.com</t>
+  </si>
+  <si>
+    <t>posmanager86@info.com</t>
+  </si>
+  <si>
+    <t>posmanager87@info.com</t>
+  </si>
+  <si>
+    <t>posmanager88@info.com</t>
   </si>
   <si>
     <t>salesmanager50@info.com</t>
@@ -86,9 +204,6 @@
     <t>salesmanager54@info.com</t>
   </si>
   <si>
-    <t>salesmanager</t>
-  </si>
-  <si>
     <t>expensesmanager55@info.com</t>
   </si>
   <si>
@@ -107,23 +222,26 @@
     <t>expensesmanager</t>
   </si>
   <si>
-    <t>eventscrmmanager48@info.com</t>
-  </si>
-  <si>
-    <t>eventscrmmanager49@info.com</t>
-  </si>
-  <si>
-    <t>eventscrmmanager</t>
-  </si>
-  <si>
-    <t>http://34.220.250.213/</t>
+    <t>expensesmanager90@info.com</t>
+  </si>
+  <si>
+    <t>expensesmanager91@info.com</t>
+  </si>
+  <si>
+    <t>expensesmanager92@info.com</t>
+  </si>
+  <si>
+    <t>expensesmanager93@info.com</t>
+  </si>
+  <si>
+    <t>expensesmanager94@info.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,14 +254,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,18 +273,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,196 +592,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF9457F-A566-344C-9B0E-A3286D8E0833}">
-  <dimension ref="B2:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036816DA-A9E0-D94A-9E8F-4818356CE9F6}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="3" t="s">
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB26F47B-CAB3-F740-987A-912A763C978C}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C34:C35"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7B93D270-3400-A14B-8366-703DC123CD06}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{BE7D8906-36B0-ED46-ADF4-FC5414BBA905}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7E75F308-F7EB-6649-9B76-48ACFD6D85EA}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{96FA1D45-5F52-0C48-8F05-09A534BEFCA5}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{19001816-F0B9-6648-8B47-7539C11DD66C}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{53F24132-16C8-414E-9A7B-56F61993CC09}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{AF5EE7E9-2587-A14A-9C9D-14FE42F90482}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>